--- a/com.ClearTrip.Regression.Test/src/main/resources/Test Data/TestData.xlsx
+++ b/com.ClearTrip.Regression.Test/src/main/resources/Test Data/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Test Case</t>
   </si>
@@ -48,22 +48,25 @@
     <t>New York</t>
   </si>
   <si>
-    <t>JFK United States</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>More travellers…</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>MoreTravellers</t>
+  </si>
+  <si>
+    <t>New York, United States</t>
+  </si>
+  <si>
+    <t>SuccessMsg</t>
+  </si>
+  <si>
+    <t>Review your hotel details</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,10 +431,11 @@
     <col min="6" max="6" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,8 +460,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -465,22 +472,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
